--- a/Unity/Assets/Config/Excel/Datas/Battle/SkillJudgeConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Battle/SkillJudgeConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\Battle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D4CAA0-E7FC-461F-AD73-1B2ECE595D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4434F3A2-3C03-42F6-AE01-DBC82FAA67E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -104,6 +104,49 @@
   </si>
   <si>
     <t>(list#sep=,),float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColliderShape</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBB</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColliderType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FixedPosition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FixedRotation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aim</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immediate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,18 +166,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -158,6 +204,20 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -201,7 +261,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,6 +274,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -532,7 +595,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -541,7 +604,7 @@
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.625" style="1" customWidth="1"/>
     <col min="5" max="6" width="26.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="1" customWidth="1"/>
     <col min="8" max="9" width="23.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -585,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -594,7 +657,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>26</v>
@@ -640,8 +703,8 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -649,8 +712,8 @@
       <c r="F4" s="1">
         <v>300</v>
       </c>
-      <c r="G4" s="1">
-        <v>2</v>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H4" s="1">
         <v>2.5</v>
@@ -667,8 +730,8 @@
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -676,8 +739,8 @@
       <c r="F5" s="2">
         <v>300</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
@@ -694,8 +757,8 @@
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -703,8 +766,8 @@
       <c r="F6" s="2">
         <v>3000</v>
       </c>
-      <c r="G6" s="1">
-        <v>2</v>
+      <c r="G6" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="H6" s="1">
         <v>0.2</v>
@@ -720,8 +783,8 @@
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2">
-        <v>3</v>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -729,8 +792,8 @@
       <c r="F7" s="2">
         <v>300</v>
       </c>
-      <c r="G7" s="1">
-        <v>2</v>
+      <c r="G7" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="H7" s="1">
         <v>0.2</v>
@@ -746,8 +809,8 @@
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2">
-        <v>4</v>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -755,8 +818,8 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
+      <c r="G8" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">

--- a/Unity/Assets/Config/Excel/Datas/Battle/SkillJudgeConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Battle/SkillJudgeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\Battle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4434F3A2-3C03-42F6-AE01-DBC82FAA67E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9B6BC3-FDD7-40A2-A517-C518494FE8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>ColliderType</t>
-  </si>
-  <si>
-    <t>StartPosType</t>
   </si>
   <si>
     <t>Time</t>
@@ -147,6 +144,18 @@
   </si>
   <si>
     <t>Sphere</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartPosType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MousePos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +604,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,7 +621,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -622,53 +631,53 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -701,19 +710,19 @@
         <v>1000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F4" s="1">
         <v>300</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1">
         <v>2.5</v>
@@ -728,22 +737,22 @@
         <v>1001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F5" s="2">
         <v>300</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -755,19 +764,19 @@
         <v>1002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F6" s="2">
         <v>3000</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1">
         <v>0.2</v>
@@ -781,19 +790,19 @@
         <v>1003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1">
         <v>0.2</v>
@@ -807,19 +816,19 @@
         <v>1004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
